--- a/Output/DescriptivesMain.xlsx
+++ b/Output/DescriptivesMain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">persuasion</t>
   </si>
   <si>
-    <t xml:space="preserve">4180</t>
+    <t xml:space="preserve">3936</t>
   </si>
   <si>
     <t xml:space="preserve">6%</t>
@@ -59,6 +59,9 @@
     <t xml:space="preserve">pressure</t>
   </si>
   <si>
+    <t xml:space="preserve">3931</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.12</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t xml:space="preserve">pushing</t>
   </si>
   <si>
+    <t xml:space="preserve">3939</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.16</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t xml:space="preserve">pa_sub</t>
   </si>
   <si>
+    <t xml:space="preserve">3943</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 30.40</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
     <t xml:space="preserve">pa_obj</t>
   </si>
   <si>
+    <t xml:space="preserve">3706</t>
+  </si>
+  <si>
     <t xml:space="preserve">11%</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
     <t xml:space="preserve">aff</t>
   </si>
   <si>
+    <t xml:space="preserve">3944</t>
+  </si>
+  <si>
     <t xml:space="preserve">  3.83</t>
   </si>
   <si>
@@ -126,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">795</t>
   </si>
   <si>
     <t xml:space="preserve">81%</t>
@@ -520,137 +538,137 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Output/DescriptivesMain.xlsx
+++ b/Output/DescriptivesMain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -74,7 +74,10 @@
     <t xml:space="preserve">pushing</t>
   </si>
   <si>
-    <t xml:space="preserve">3939</t>
+    <t xml:space="preserve">3905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%</t>
   </si>
   <si>
     <t xml:space="preserve">  0.16</t>
@@ -564,111 +567,111 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Output/DescriptivesMain.xlsx
+++ b/Output/DescriptivesMain.xlsx
@@ -6,18 +6,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">n_Obs</t>
+    <t xml:space="preserve">n Observations</t>
   </si>
   <si>
     <t xml:space="preserve">Missing</t>
@@ -32,133 +32,49 @@
     <t xml:space="preserve">Range</t>
   </si>
   <si>
-    <t xml:space="preserve">ICC</t>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">persuasion</t>
   </si>
   <si>
-    <t xml:space="preserve">3936</t>
-  </si>
-  <si>
     <t xml:space="preserve">6%</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.00-  5.00</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
     <t xml:space="preserve">pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">3931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58</t>
-  </si>
-  <si>
     <t xml:space="preserve">pushing</t>
   </si>
   <si>
-    <t xml:space="preserve">3905</t>
-  </si>
-  <si>
     <t xml:space="preserve">7%</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
     <t xml:space="preserve">pa_sub</t>
   </si>
   <si>
-    <t xml:space="preserve">3943</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54.78</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.00-720.00</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
     <t xml:space="preserve">pa_obj</t>
   </si>
   <si>
-    <t xml:space="preserve">3706</t>
-  </si>
-  <si>
     <t xml:space="preserve">11%</t>
   </si>
   <si>
-    <t xml:space="preserve">144.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.81</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.75-971.25</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
     <t xml:space="preserve">aff</t>
   </si>
   <si>
-    <t xml:space="preserve">3944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41</t>
-  </si>
-  <si>
     <t xml:space="preserve">reactance</t>
   </si>
   <si>
-    <t xml:space="preserve">795</t>
-  </si>
-  <si>
     <t xml:space="preserve">81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47</t>
   </si>
 </sst>
 </file>
@@ -166,13 +82,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,12 +112,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,187 +430,187 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="n">
+        <v>3936</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="G2" s="2" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3931</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3" s="1" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3905</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
+      <c r="D4" s="1" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3943</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3706</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>144.41</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>117.81</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3944</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
+      <c r="G7" s="1" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>795</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>

--- a/Output/DescriptivesMain.xlsx
+++ b/Output/DescriptivesMain.xlsx
@@ -1,88 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC4F02-08A5-4A3B-8BF5-9C11FA2BDA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n Observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-  5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-720.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75-971.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>n Observations</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>0.00-  5.00</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>0.00-720.00</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>5.75-971.25</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Pushing</t>
+  </si>
+  <si>
+    <t>Self-Reported MVPA</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Reactance</t>
+  </si>
+  <si>
+    <t>ICC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,6 +102,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,20 +132,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,13 +172,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,15 +482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="5" width="7.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.06640625" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -448,173 +517,173 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3936</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>3936</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3931</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3905</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D4" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3943</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>54.78</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="G5" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3706</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>3931</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="D6" s="1">
+        <v>144.41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>117.81</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>3905</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="G6" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3944</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>795</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>3943</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>54.78</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>3706</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>144.41</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>117.81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>3944</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>795</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>0.79</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>1.32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/DescriptivesMain.xlsx
+++ b/Output/DescriptivesMain.xlsx
@@ -1,95 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC4F02-08A5-4A3B-8BF5-9C11FA2BDA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>n Observations</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>6%</t>
-  </si>
-  <si>
-    <t>0.00-  5.00</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>0.00-720.00</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>5.75-971.25</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>Persuasion</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Pushing</t>
-  </si>
-  <si>
-    <t>Self-Reported MVPA</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA</t>
-  </si>
-  <si>
-    <t>Mood</t>
-  </si>
-  <si>
-    <t>Reactance</t>
-  </si>
-  <si>
-    <t>ICC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n Observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00-  5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00-720.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa_obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75-971.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -102,18 +95,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,39 +113,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,35 +134,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -482,24 +422,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="5" width="7.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.06640625" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -517,173 +448,173 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>3936</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3931</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3905</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3943</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3706</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>144.41</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>117.81</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3944</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>795</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3936</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3931</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3905</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3943</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30.4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>54.78</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3706</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>144.41</v>
-      </c>
-      <c r="E6" s="1">
-        <v>117.81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3944</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.83</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
-        <v>795</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="n">
         <v>0.47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>